--- a/Listas de precios/mayorista/VARILLA ROSCADA DISMAY.xlsx
+++ b/Listas de precios/mayorista/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/VARILLA ROSCADA DISMAY.xlsx
+++ b/Listas de precios/mayorista/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/VARILLA ROSCADA DISMAY.xlsx
+++ b/Listas de precios/mayorista/VARILLA ROSCADA DISMAY.xlsx
@@ -856,7 +856,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1110,19 +1110,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
